--- a/TestDataXls/signin.xlsx
+++ b/TestDataXls/signin.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7695" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7695" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="signin" sheetId="1" r:id="rId1"/>
     <sheet name="std_signin" sheetId="2" r:id="rId2"/>
+    <sheet name="std_chat" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="69">
   <si>
     <t>key</t>
   </si>
@@ -204,6 +205,24 @@
   </si>
   <si>
     <t>All the sections are empty</t>
+  </si>
+  <si>
+    <t>text_1</t>
+  </si>
+  <si>
+    <t>text_2</t>
+  </si>
+  <si>
+    <t>text_3</t>
+  </si>
+  <si>
+    <t>Hello everyone! In today's session we will see about java datatypes.</t>
+  </si>
+  <si>
+    <t>Do internet surfing about datatypes and make notes with it.</t>
+  </si>
+  <si>
+    <t>Today i'll be late for class, don't waste your time till i'm coming.</t>
   </si>
 </sst>
 </file>
@@ -211,15 +230,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -250,6 +276,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -259,22 +345,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,17 +376,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -305,33 +391,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -344,42 +406,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -395,187 +421,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,11 +615,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,37 +669,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -686,157 +692,181 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1248,16 +1278,16 @@
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
@@ -1269,7 +1299,7 @@
       <c r="I2" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="1"/>
+      <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
@@ -1278,16 +1308,16 @@
       <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G3" t="s">
@@ -1307,16 +1337,16 @@
       <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G4" t="s">
@@ -1336,16 +1366,16 @@
       <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="C5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G5" t="s">
@@ -1365,7 +1395,7 @@
       <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D6" t="s">
@@ -1374,7 +1404,7 @@
       <c r="E6" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G6" t="s">
@@ -1394,10 +1424,10 @@
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="C7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E7" t="s">
@@ -1417,10 +1447,10 @@
       <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="C8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E8" t="s">
@@ -1440,10 +1470,10 @@
       <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="C9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E9" t="s">
@@ -1463,10 +1493,10 @@
       <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="C10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E10" t="s">
@@ -1486,10 +1516,10 @@
       <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="C11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E11" t="s">
@@ -1509,10 +1539,10 @@
       <c r="B12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="C12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E12" t="s">
@@ -1532,10 +1562,10 @@
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="C13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E13">
@@ -1555,10 +1585,10 @@
       <c r="B14" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="C14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="3">
         <v>12345</v>
       </c>
       <c r="E14" t="s">
@@ -1578,13 +1608,13 @@
       <c r="B15" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="C15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="2" t="s">
         <v>39</v>
       </c>
       <c r="H15">
@@ -1601,13 +1631,13 @@
       <c r="B16" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="2" t="s">
         <v>41</v>
       </c>
       <c r="H16">
@@ -1624,13 +1654,13 @@
       <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D17" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F17" t="s">
@@ -1650,13 +1680,13 @@
       <c r="B18" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="2" t="s">
         <v>45</v>
       </c>
       <c r="H18">
@@ -1673,13 +1703,13 @@
       <c r="B19" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="2" t="s">
         <v>45</v>
       </c>
       <c r="H19">
@@ -1727,8 +1757,8 @@
   <sheetPr/>
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1784,19 +1814,19 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>39</v>
       </c>
       <c r="I2">
@@ -1816,25 +1846,25 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="6" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1848,16 +1878,16 @@
       <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I4">
@@ -1877,16 +1907,16 @@
       <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="3" t="s">
         <v>55</v>
       </c>
       <c r="I5">
@@ -1906,16 +1936,16 @@
       <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>51</v>
       </c>
       <c r="I6">
@@ -1935,25 +1965,25 @@
       <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>51</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="6" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1967,13 +1997,13 @@
       <c r="C8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="3" t="s">
         <v>39</v>
       </c>
       <c r="G8" t="s">
@@ -1999,13 +2029,13 @@
       <c r="C9" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="3"/>
       <c r="I9">
         <v>1</v>
       </c>
@@ -2014,14 +2044,14 @@
       </c>
     </row>
     <row r="11" spans="7:7">
-      <c r="G11" s="1"/>
+      <c r="G11" s="2"/>
     </row>
     <row r="13" spans="7:7">
-      <c r="G13" s="1"/>
+      <c r="G13" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="luziffernandez162002@gmail.com"/>
+    <hyperlink ref="D2" r:id="rId1" display="luziffernandez162002@gmail.com" tooltip="mailto:luziffernandez162002@gmail.com"/>
     <hyperlink ref="E2" r:id="rId2" display="Test@123" tooltip="mailto:Test@123"/>
     <hyperlink ref="F2" r:id="rId2" display="Test@123" tooltip="mailto:Test@123"/>
     <hyperlink ref="G2" r:id="rId3" display="Admin@123" tooltip="mailto:Admin@123"/>
@@ -2057,4 +2087,96 @@
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2"/>
+  <cols>
+    <col min="3" max="3" width="10.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="35.5714285714286" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="35.5714285714286" customWidth="1"/>
+    <col min="7" max="7" width="19.5714285714286" customWidth="1"/>
+    <col min="8" max="8" width="19.8571428571429" customWidth="1"/>
+    <col min="9" max="9" width="18.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" ht="60" spans="1:9">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="4:9">
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="Admin@123" tooltip="mailto:Admin@123"/>
+    <hyperlink ref="D2" r:id="rId2" display="luziffernandez162002@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/TestDataXls/signin.xlsx
+++ b/TestDataXls/signin.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7695" activeTab="2"/>
+    <workbookView windowWidth="20490" windowHeight="7695" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="signin" sheetId="1" r:id="rId1"/>
     <sheet name="std_signin" sheetId="2" r:id="rId2"/>
     <sheet name="std_chat" sheetId="3" r:id="rId3"/>
+    <sheet name="send_notes" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="76">
   <si>
     <t>key</t>
   </si>
@@ -216,13 +217,34 @@
     <t>text_3</t>
   </si>
   <si>
-    <t>Hello everyone! In today's session we will see about java datatypes.</t>
-  </si>
-  <si>
-    <t>Do internet surfing about datatypes and make notes with it.</t>
-  </si>
-  <si>
-    <t>Today i'll be late for class, don't waste your time till i'm coming.</t>
+    <t>Good Morninggg!!!!</t>
+  </si>
+  <si>
+    <t>Have a great Day!!</t>
+  </si>
+  <si>
+    <t>Good evening!!</t>
+  </si>
+  <si>
+    <t>notes_heading</t>
+  </si>
+  <si>
+    <t>notes_main</t>
+  </si>
+  <si>
+    <t>update_text</t>
+  </si>
+  <si>
+    <t>Home work!</t>
+  </si>
+  <si>
+    <t>Testing purpose</t>
+  </si>
+  <si>
+    <t>Testing purpose only 12345</t>
+  </si>
+  <si>
+    <t>Notes have been uploaded!</t>
   </si>
 </sst>
 </file>
@@ -230,12 +252,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,7 +267,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -267,32 +289,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -305,16 +312,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,9 +345,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -348,6 +355,14 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -367,8 +382,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,9 +420,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -397,16 +434,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,187 +450,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,21 +641,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -649,6 +663,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -679,6 +704,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -701,172 +741,162 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1222,7 +1252,7 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1278,7 +1308,7 @@
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1308,7 +1338,7 @@
       <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1337,7 +1367,7 @@
       <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1366,7 +1396,7 @@
       <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1395,7 +1425,7 @@
       <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D6" t="s">
@@ -1424,7 +1454,7 @@
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -1447,7 +1477,7 @@
       <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1470,7 +1500,7 @@
       <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -1493,7 +1523,7 @@
       <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -1516,7 +1546,7 @@
       <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -1539,7 +1569,7 @@
       <c r="B12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -1562,7 +1592,7 @@
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -1585,7 +1615,7 @@
       <c r="B14" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="3">
@@ -1608,7 +1638,7 @@
       <c r="B15" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -1631,7 +1661,7 @@
       <c r="B16" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -1654,7 +1684,7 @@
       <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D17" t="s">
@@ -1680,7 +1710,7 @@
       <c r="B18" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -1703,7 +1733,7 @@
       <c r="B19" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -1864,7 +1894,7 @@
       <c r="I3">
         <v>1</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="7" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1913,7 +1943,7 @@
       <c r="E5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H5" s="3" t="s">
@@ -1983,7 +2013,7 @@
       <c r="I7">
         <v>1</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="7" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2094,8 +2124,8 @@
   <sheetPr/>
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F17:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2"/>
@@ -2103,40 +2133,40 @@
     <col min="3" max="3" width="10.2857142857143" customWidth="1"/>
     <col min="4" max="4" width="35.5714285714286" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="35.5714285714286" customWidth="1"/>
-    <col min="7" max="7" width="19.5714285714286" customWidth="1"/>
-    <col min="8" max="8" width="19.8571428571429" customWidth="1"/>
+    <col min="6" max="6" width="25.2857142857143" customWidth="1"/>
+    <col min="7" max="7" width="25.8571428571429" customWidth="1"/>
+    <col min="8" max="8" width="21.7142857142857" customWidth="1"/>
     <col min="9" max="9" width="18.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" ht="60" spans="1:9">
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2152,24 +2182,24 @@
       <c r="E2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="4"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" spans="4:9">
       <c r="D3" s="2"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2179,4 +2209,99 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2"/>
+  <cols>
+    <col min="3" max="3" width="11.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="38" customWidth="1"/>
+    <col min="5" max="5" width="23.5714285714286" customWidth="1"/>
+    <col min="6" max="6" width="18.7142857142857" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="27.8571428571429" customWidth="1"/>
+    <col min="9" max="9" width="40.4285714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="luziffernandez162002@gmail.com"/>
+    <hyperlink ref="E2" r:id="rId2" display="Admin@123" tooltip="mailto:Admin@123"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>